--- a/data/trans_dic/P24_10_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P24_10_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -476,7 +477,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -497,7 +498,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con ansiedad o angustia con bastante o mucha frecuencia</t>
+          <t>Población con ansiedad o angustia con bastante o mucha frecuencia (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -566,7 +567,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,26%</t>
+          <t>2,25%</t>
         </is>
       </c>
     </row>
@@ -579,17 +580,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,54; 4,66</t>
+          <t>0,54; 5,04</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,11; 6,37</t>
+          <t>1,03; 6,5</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,06; 4,39</t>
+          <t>1,09; 4,34</t>
         </is>
       </c>
     </row>
@@ -629,17 +630,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,6</t>
+          <t>0,0; 2,9</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,31; 5,9</t>
+          <t>1,3; 6,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,81; 3,3</t>
+          <t>0,84; 3,42</t>
         </is>
       </c>
     </row>
@@ -661,7 +662,7 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,03%</t>
+          <t>2,02%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,69; 3,77</t>
+          <t>0,63; 3,86</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,85; 3,81</t>
+          <t>0,85; 4,23</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,05; 3,23</t>
+          <t>1,05; 3,28</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,66</t>
+          <t>0,0; 1,61</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,81; 3,63</t>
+          <t>0,8; 3,72</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,55; 2,16</t>
+          <t>0,55; 2,12</t>
         </is>
       </c>
     </row>
@@ -779,17 +780,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,78</t>
+          <t>0,0; 2,1</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,09; 5,06</t>
+          <t>0,8; 4,76</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,59; 3,0</t>
+          <t>0,58; 2,7</t>
         </is>
       </c>
     </row>
@@ -829,17 +830,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,91; 4,19</t>
+          <t>0,73; 4,21</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,53; 2,46</t>
+          <t>0,51; 2,45</t>
         </is>
       </c>
     </row>
@@ -879,17 +880,24 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,44; 1,43</t>
+          <t>0,41; 1,38</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,67; 3,14</t>
+          <t>1,71; 3,12</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,18; 2,1</t>
+          <t>1,2; 2,1</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -906,4 +914,610 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con ansiedad o angustia con bastante o mucha frecuencia (tasa de respuesta: 100,0%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>8717</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>13284</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>22001</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>2745; 25834</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>4751; 30097</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>10628; 42355</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>2839</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>16037</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>18876</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 16320</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>6721; 31107</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>9143; 36975</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>12264</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>14057</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>26321</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>4266; 26072</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>5882; 29378</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>14362; 44881</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>13471</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>15494</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>0; 10273</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>5602; 26140</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>7341; 28480</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>1780</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>11923</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>13703</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0; 10749</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>4005; 23936</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>5919; 27359</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>14713</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>14713</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>5315; 30750</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>6554; 31341</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>27622</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>83485</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>111107</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>14246; 47564</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>61712; 112843</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>84700; 147996</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>